--- a/10_Testing/TestCases.xlsx
+++ b/10_Testing/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>TC-ID</t>
   </si>
@@ -97,13 +97,22 @@
   </si>
   <si>
     <t>Blocked</t>
+  </si>
+  <si>
+    <t>BAS13</t>
+  </si>
+  <si>
+    <t>BAS14</t>
+  </si>
+  <si>
+    <t>BAS15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +142,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -154,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,11 +207,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -221,6 +246,16 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,17 +551,21 @@
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8">
         <v>43003</v>
       </c>
       <c r="E1" s="9">
         <v>43074</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="10">
+        <v>43123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -545,8 +584,17 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>COUNTIF(B7:B16,"passed")</f>
         <v>5</v>
@@ -571,8 +619,20 @@
         <f>COUNTIF(F7:F18,"blocked")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f>COUNTIF(I7:K21,"passed")</f>
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(I6:K21,"failed")</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(I6:K21,"blocked")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +651,17 @@
       <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -607,8 +676,15 @@
         <v>4</v>
       </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -625,8 +701,15 @@
         <v>4</v>
       </c>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -641,8 +724,15 @@
         <v>4</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -657,8 +747,15 @@
         <v>4</v>
       </c>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -673,8 +770,15 @@
         <v>4</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -689,8 +793,15 @@
         <v>4</v>
       </c>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -709,8 +820,17 @@
       <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -729,8 +849,17 @@
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -749,8 +878,17 @@
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -769,8 +907,17 @@
       <c r="G16" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
@@ -778,8 +925,15 @@
         <v>4</v>
       </c>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
@@ -787,6 +941,40 @@
         <v>4</v>
       </c>
       <c r="G18" s="7"/>
+      <c r="I18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10_Testing/TestCases.xlsx
+++ b/10_Testing/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
   <si>
     <t>TC-ID</t>
   </si>
@@ -97,13 +97,34 @@
   </si>
   <si>
     <t>Blocked</t>
+  </si>
+  <si>
+    <t>BAS13</t>
+  </si>
+  <si>
+    <t>BAS14</t>
+  </si>
+  <si>
+    <t>BAS15</t>
+  </si>
+  <si>
+    <t>BAS16</t>
+  </si>
+  <si>
+    <t>BAS17</t>
+  </si>
+  <si>
+    <t>BAS18</t>
+  </si>
+  <si>
+    <t>Step 3 not implemented yet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +154,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -154,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,11 +219,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -221,6 +258,16 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,17 +563,25 @@
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8">
         <v>43003</v>
       </c>
       <c r="E1" s="9">
         <v>43074</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="10">
+        <v>43123</v>
+      </c>
+      <c r="M1" s="10">
+        <v>43207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -545,8 +600,26 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>COUNTIF(B7:B16,"passed")</f>
         <v>5</v>
@@ -571,8 +644,32 @@
         <f>COUNTIF(F7:F18,"blocked")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f>COUNTIF(I7:K21,"passed")</f>
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(I6:K21,"failed")</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(I6:K21,"blocked")</f>
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIF(M7:O24,"passed")</f>
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIF(M6:O24,"failed")</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIF(M6:O24,"blocked")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +688,26 @@
       <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -607,8 +722,22 @@
         <v>4</v>
       </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="M7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -625,8 +754,22 @@
         <v>4</v>
       </c>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="M8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -641,8 +784,22 @@
         <v>4</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -657,8 +814,22 @@
         <v>4</v>
       </c>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="M10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -673,8 +844,22 @@
         <v>4</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="M11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -689,8 +874,22 @@
         <v>4</v>
       </c>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="M12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -709,8 +908,26 @@
       <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -729,8 +946,24 @@
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -749,8 +982,26 @@
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -769,8 +1020,26 @@
       <c r="G16" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
@@ -778,8 +1047,22 @@
         <v>4</v>
       </c>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="M17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
@@ -787,6 +1070,97 @@
         <v>4</v>
       </c>
       <c r="G18" s="7"/>
+      <c r="I18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="M18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="5:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
